--- a/DSC_REG8b_alg.xlsx
+++ b/DSC_REG8b_alg.xlsx
@@ -1829,8 +1829,8 @@
   <sheetPr/>
   <dimension ref="A1:N2713"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
